--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kmitlthailand-my.sharepoint.com/personal/63010187_kmitl_ac_th/Documents/Project_ChatGPT_TH/Chatbot_for_dataxet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_7CC194CE1878340E62355476585DCE3A874A8AE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0200D55F-9B40-40E6-AA6F-00B5AE05E1DA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -4656,7 +4637,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4668,7 +4650,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4689,16 +4673,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4706,30 +4690,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4737,10 +4720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4778,69 +4761,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4864,54 +4849,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4921,7 +4905,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4930,7 +4914,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4939,7 +4923,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4947,10 +4931,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -4979,7 +4963,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -4992,13 +4976,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -5016,20 +4999,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="B39" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="112.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="255.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5037,5983 +5021,5983 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="45">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="45">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57.75">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="32.25">
+      <c r="A158" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="32.25">
+      <c r="A166" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="32.25">
+      <c r="A169" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="70.5">
+      <c r="A176" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="32.25">
+      <c r="A178" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="96.75">
+      <c r="A180" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="32.25">
+      <c r="A185" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="A215" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="A216" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="A217" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="A218" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="A219" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="A220" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="A221" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="A222" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="A223" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="A224" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="A225" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="A227" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="A228" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="A229" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="A230" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="A231" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="A232" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="A233" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="A234" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="A235" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="A236" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="A237" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="A238" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="A239" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="A240" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="A241" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="A242" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="A243" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="A244" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="A245" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="A246" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="A247" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="A250" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="A251" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="A252" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="A253" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="A254" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="A255" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="A256" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="A257" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="A258" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="A259" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="A260" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="A261" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="A264" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="A265" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="A266" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="A268" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="A269" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="A270" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="A271" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="A272" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="A278" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="A279" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="A280" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="A281" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="A282" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="A283" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="A284" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="A285" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="A286" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="A287" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="A288" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="A289" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="A290" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="A291" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="A292" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="A293" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="A294" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="A295" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="A296" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="A297" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="A298" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="A299" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="A300" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="A301" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="A302" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="A303" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="A304" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="A305" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="A306" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="A307" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="A308" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="A309" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="A310" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="A311" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="A312" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="A313" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="A314" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="A315" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="A316" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="A317" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="A318" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="A319" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="A320" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+      <c r="A322" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+      <c r="A323" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+      <c r="A324" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+      <c r="A325" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+      <c r="A326" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+      <c r="A327" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+      <c r="A328" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+      <c r="A329" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+      <c r="A330" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+      <c r="A331" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+      <c r="A332" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+      <c r="A333" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+      <c r="A334" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+      <c r="A335" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+      <c r="A336" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+      <c r="A337" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+      <c r="A338" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+      <c r="A339" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+      <c r="A340" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+      <c r="A341" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+      <c r="A342" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+      <c r="A343" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+      <c r="A344" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+      <c r="A345" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+      <c r="A346" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+      <c r="A347" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+      <c r="A348" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
+      <c r="A349" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
+      <c r="A350" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
+      <c r="A351" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
+      <c r="A352" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
+      <c r="A353" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
+      <c r="A354" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
+      <c r="A355" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
+      <c r="A356" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+      <c r="A357" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
+      <c r="A358" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
+      <c r="A359" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
+      <c r="A360" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
+      <c r="A361" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
+      <c r="A362" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+      <c r="A363" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
+      <c r="A364" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
+      <c r="A365" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+      <c r="A366" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
+      <c r="A367" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+      <c r="A368" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+      <c r="A369" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+      <c r="A370" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+      <c r="A371" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+      <c r="A372" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
+      <c r="A373" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+      <c r="A374" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
+      <c r="A375" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+      <c r="A376" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+      <c r="A377" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
+      <c r="A378" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
+      <c r="A379" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+      <c r="A380" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
+      <c r="A381" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
+      <c r="A382" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="2" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
+      <c r="A383" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="2" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
+      <c r="A384" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="2" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
+      <c r="A385" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+      <c r="A386" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
+      <c r="A387" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
+      <c r="A388" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
+      <c r="A389" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
+      <c r="A390" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
+      <c r="A391" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+      <c r="A392" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
+      <c r="A393" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
+      <c r="A394" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="2" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
+      <c r="A395" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
+      <c r="A396" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="2" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+      <c r="A397" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+      <c r="A398" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+      <c r="A399" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
+      <c r="A400" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
+      <c r="A401" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="2" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
+      <c r="A402" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
+      <c r="A403" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
+      <c r="A404" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
+      <c r="A405" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+      <c r="A406" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
+      <c r="A407" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
+      <c r="A408" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
+      <c r="A409" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+      <c r="A410" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
+      <c r="A411" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+      <c r="A412" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
+      <c r="A413" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
+      <c r="A414" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
+      <c r="A415" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
+      <c r="A416" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
+      <c r="A417" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+      <c r="A418" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+      <c r="A419" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
+      <c r="A420" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
+      <c r="A421" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
+      <c r="A422" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
+      <c r="A423" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
+      <c r="A424" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
+      <c r="A425" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
+      <c r="A426" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
+      <c r="A427" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
+      <c r="A428" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+      <c r="A429" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
+      <c r="A430" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
+      <c r="A431" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+      <c r="A432" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+      <c r="A433" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
+      <c r="A434" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
+      <c r="A435" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
+      <c r="A436" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
+      <c r="A437" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
+      <c r="A438" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
+      <c r="A439" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
+      <c r="A440" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="2" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
+      <c r="A441" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
+      <c r="A442" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
+      <c r="A443" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
+      <c r="A444" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
+      <c r="A445" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="2" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
+      <c r="A446" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="2" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
+      <c r="A447" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
+      <c r="A448" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
+      <c r="A449" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
+      <c r="A450" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
+      <c r="A451" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
+      <c r="A452" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
+      <c r="A453" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
+      <c r="A454" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
+      <c r="A455" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
+      <c r="A456" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
+      <c r="A457" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
+      <c r="A458" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
+      <c r="A459" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="2" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
+      <c r="A460" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="2" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
+      <c r="A461" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
+      <c r="A462" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
+      <c r="A463" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
+      <c r="A464" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="2" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
+      <c r="A465" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="2" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
+      <c r="A466" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
+      <c r="A467" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="2" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+      <c r="A468" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="2" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+      <c r="A469" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="2" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
+      <c r="A470" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="2" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
+      <c r="A471" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="2" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
+      <c r="A472" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="2" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
+      <c r="A473" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
+      <c r="A474" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
+      <c r="A475" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="2" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
+      <c r="A476" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="2" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
+      <c r="A477" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="2" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
+      <c r="A478" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="2" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
+      <c r="A479" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="2" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
+      <c r="A480" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
+      <c r="A481" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
+      <c r="A482" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="2" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
+      <c r="A483" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="2" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
+      <c r="A484" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="2" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
+      <c r="A485" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
+      <c r="A486" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="2" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
+      <c r="A487" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
+      <c r="A488" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
+      <c r="A489" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
+      <c r="A490" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="2" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
+      <c r="A491" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="2" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
+      <c r="A492" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="2" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
+      <c r="A493" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="2" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
+      <c r="A494" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="2" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
+      <c r="A495" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="2" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
+      <c r="A496" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
+      <c r="A497" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
+      <c r="A498" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
+      <c r="A499" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
+      <c r="A500" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
+      <c r="A501" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
+      <c r="A502" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
+      <c r="A503" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="2" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
+      <c r="A504" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="2" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
+      <c r="A505" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="2" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
+      <c r="A506" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
+      <c r="A507" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="2" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
+      <c r="A508" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
+      <c r="A509" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="2" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
+      <c r="A510" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="2" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
+      <c r="A511" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="2" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
+      <c r="A512" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
+      <c r="A513" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
+      <c r="A514" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
+      <c r="A515" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
+      <c r="A516" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="2" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
+      <c r="A517" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="2" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
+      <c r="A518" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
+      <c r="A519" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
+      <c r="A520" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="2" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
+      <c r="A521" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
+      <c r="A522" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
+      <c r="A523" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
+      <c r="A524" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="2" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
+      <c r="A525" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="2" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
+      <c r="A526" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
+      <c r="A527" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="2" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
+      <c r="A528" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
+      <c r="A529" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="2" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
+      <c r="A530" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
+      <c r="A531" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="2" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
+      <c r="A532" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
+      <c r="A533" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
+      <c r="A534" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
+      <c r="A535" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
+      <c r="A536" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
+      <c r="A537" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
+      <c r="A538" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
+      <c r="A539" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
+      <c r="A540" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
+      <c r="A541" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
+      <c r="A542" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
+      <c r="A543" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
+      <c r="A544" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
+      <c r="A545" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
+      <c r="A546" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="2" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
+      <c r="A547" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
+      <c r="A548" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="2" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
+      <c r="A549" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
+      <c r="A550" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
+      <c r="A551" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
+      <c r="A552" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A553" t="s">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
+      <c r="A553" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A554" t="s">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
+      <c r="A554" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
+      <c r="A555" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A556" t="s">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
+      <c r="A556" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
+      <c r="A557" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A558" t="s">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
+      <c r="A558" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A559" t="s">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
+      <c r="A559" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A560" t="s">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
+      <c r="A560" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="2" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
+      <c r="A561" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A562" t="s">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
+      <c r="A562" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A563" t="s">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
+      <c r="A563" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A564" t="s">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
+      <c r="A564" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A565" t="s">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
+      <c r="A565" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="2" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A566" t="s">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
+      <c r="A566" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="2" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A567" t="s">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
+      <c r="A567" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="2" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A568" t="s">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
+      <c r="A568" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="2" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A569" t="s">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
+      <c r="A569" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" t="s">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
+      <c r="A570" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A571" t="s">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
+      <c r="A571" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A572" t="s">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
+      <c r="A572" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A573" t="s">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
+      <c r="A573" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="2" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
+      <c r="A574" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="2" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
+      <c r="A575" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
+      <c r="A576" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
+      <c r="A577" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A578" t="s">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
+      <c r="A578" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A579" t="s">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
+      <c r="A579" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A580" t="s">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
+      <c r="A580" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A581" t="s">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
+      <c r="A581" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A582" t="s">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
+      <c r="A582" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A583" t="s">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
+      <c r="A583" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="2" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" t="s">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
+      <c r="A584" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="2" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A585" t="s">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
+      <c r="A585" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="2" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A586" t="s">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
+      <c r="A586" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="2" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A587" t="s">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
+      <c r="A587" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="2" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A588" t="s">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
+      <c r="A588" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A589" t="s">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
+      <c r="A589" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A590" t="s">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
+      <c r="A590" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="2" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A591" t="s">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
+      <c r="A591" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" t="s">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
+      <c r="A592" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="2" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A593" t="s">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
+      <c r="A593" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" t="s">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
+      <c r="A594" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="2" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A595" t="s">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
+      <c r="A595" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="2" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A596" t="s">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
+      <c r="A596" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A597" t="s">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
+      <c r="A597" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A598" t="s">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
+      <c r="A598" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A599" t="s">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
+      <c r="A599" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="2" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A600" t="s">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
+      <c r="A600" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="2" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A601" t="s">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
+      <c r="A601" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="2" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A602" t="s">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
+      <c r="A602" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="2" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A603" t="s">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
+      <c r="A603" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="2" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A604" t="s">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
+      <c r="A604" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="2" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A605" t="s">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
+      <c r="A605" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="2" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A606" t="s">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
+      <c r="A606" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A607" t="s">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
+      <c r="A607" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A608" t="s">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
+      <c r="A608" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="2" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A609" t="s">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
+      <c r="A609" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A610" t="s">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
+      <c r="A610" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A611" t="s">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
+      <c r="A611" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A612" t="s">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
+      <c r="A612" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A613" t="s">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
+      <c r="A613" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="2" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A614" t="s">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
+      <c r="A614" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A615" t="s">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
+      <c r="A615" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A616" t="s">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
+      <c r="A616" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A617" t="s">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
+      <c r="A617" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="2" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A618" t="s">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
+      <c r="A618" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A619" t="s">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
+      <c r="A619" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A620" t="s">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
+      <c r="A620" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="2" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A621" t="s">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
+      <c r="A621" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="2" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A622" t="s">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
+      <c r="A622" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="2" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A623" t="s">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
+      <c r="A623" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A624" t="s">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
+      <c r="A624" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="2" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A625" t="s">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
+      <c r="A625" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A626" t="s">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
+      <c r="A626" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A627" t="s">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
+      <c r="A627" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A628" t="s">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
+      <c r="A628" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="2" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A629" t="s">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
+      <c r="A629" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A630" t="s">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
+      <c r="A630" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="2" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A631" t="s">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
+      <c r="A631" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A632" t="s">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
+      <c r="A632" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A633" t="s">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
+      <c r="A633" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A634" t="s">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
+      <c r="A634" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
+      <c r="A635" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A636" t="s">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
+      <c r="A636" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A637" t="s">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
+      <c r="A637" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A638" t="s">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
+      <c r="A638" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A639" t="s">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
+      <c r="A639" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="2" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A640" t="s">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
+      <c r="A640" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
+      <c r="A641" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75">
+      <c r="A642" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A643" t="s">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75">
+      <c r="A643" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="2" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A644" t="s">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
+      <c r="A644" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="2" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A645" t="s">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75">
+      <c r="A645" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
+      <c r="A646" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
+      <c r="A647" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A648" t="s">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75">
+      <c r="A648" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="2" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75">
+      <c r="A649" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B649" s="2" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A650" t="s">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75">
+      <c r="A650" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="2" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
+      <c r="A651" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B651" s="2" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
+      <c r="A652" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B652" s="2" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
+      <c r="A653" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75">
+      <c r="A654" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="2" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
+      <c r="A655" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="2" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75">
+      <c r="A656" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="2" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A657" t="s">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
+      <c r="A657" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="2" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A658" t="s">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75">
+      <c r="A658" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="2" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A659" t="s">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75">
+      <c r="A659" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="2" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A660" t="s">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75">
+      <c r="A660" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B660" s="2" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A661" t="s">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
+      <c r="A661" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="2" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A662" t="s">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
+      <c r="A662" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B662" s="2" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
+      <c r="A663" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A664" t="s">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75">
+      <c r="A664" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75">
+      <c r="A665" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A666" t="s">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75">
+      <c r="A666" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="2" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A667" t="s">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75">
+      <c r="A667" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A668" t="s">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75">
+      <c r="A668" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="2" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A669" t="s">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75">
+      <c r="A669" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A670" t="s">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75">
+      <c r="A670" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="2" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A671" t="s">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75">
+      <c r="A671" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A672" t="s">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
+      <c r="A672" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="2" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A673" t="s">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75">
+      <c r="A673" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="2" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A674" t="s">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
+      <c r="A674" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B674" s="2" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A675" t="s">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75">
+      <c r="A675" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B675" s="2" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A676" t="s">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75">
+      <c r="A676" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B676" s="2" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A677" t="s">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75">
+      <c r="A677" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="2" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A678" t="s">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
+      <c r="A678" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B678" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A679" t="s">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
+      <c r="A679" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B679" s="2" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A680" t="s">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75">
+      <c r="A680" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B680" s="2" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A681" t="s">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75">
+      <c r="A681" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B681" s="2" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A682" t="s">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75">
+      <c r="A682" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B682" s="2" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A683" t="s">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75">
+      <c r="A683" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B683" s="2" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A684" t="s">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
+      <c r="A684" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B684" s="2" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A685" t="s">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75">
+      <c r="A685" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B685" s="2" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A686" t="s">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
+      <c r="A686" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B686" t="s">
+      <c r="B686" s="2" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A687" t="s">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75">
+      <c r="A687" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B687" s="2" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A688" t="s">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75">
+      <c r="A688" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B688" s="2" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A689" t="s">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75">
+      <c r="A689" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="2" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A690" t="s">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75">
+      <c r="A690" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="2" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A691" t="s">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75">
+      <c r="A691" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B691" s="2" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" t="s">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75">
+      <c r="A692" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="2" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A693" t="s">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75">
+      <c r="A693" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B693" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A694" t="s">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75">
+      <c r="A694" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B694" t="s">
+      <c r="B694" s="2" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A695" t="s">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75">
+      <c r="A695" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B695" s="2" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A696" t="s">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75">
+      <c r="A696" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B696" s="2" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A697" t="s">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75">
+      <c r="A697" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B697" s="2" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A698" t="s">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75">
+      <c r="A698" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B698" s="2" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A699" t="s">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75">
+      <c r="A699" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B699" s="2" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A700" t="s">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75">
+      <c r="A700" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B700" s="2" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A701" t="s">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75">
+      <c r="A701" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B701" s="2" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A702" t="s">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75">
+      <c r="A702" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B702" s="2" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A703" t="s">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75">
+      <c r="A703" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B703" s="2" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A704" t="s">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75">
+      <c r="A704" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B704" s="2" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A705" t="s">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75">
+      <c r="A705" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B705" s="2" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A706" t="s">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75">
+      <c r="A706" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B706" s="2" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A707" t="s">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75">
+      <c r="A707" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B707" s="2" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A708" t="s">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75">
+      <c r="A708" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B708" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A709" t="s">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75">
+      <c r="A709" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B709" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A710" t="s">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75">
+      <c r="A710" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B710" s="2" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A711" t="s">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75">
+      <c r="A711" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B711" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A712" t="s">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75">
+      <c r="A712" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B712" s="2" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A713" t="s">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75">
+      <c r="A713" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="B713" t="s">
+      <c r="B713" s="2" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A714" t="s">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75">
+      <c r="A714" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="B714" t="s">
+      <c r="B714" s="2" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A715" t="s">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75">
+      <c r="A715" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B715" s="2" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A716" t="s">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75">
+      <c r="A716" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B716" s="2" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A717" t="s">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75">
+      <c r="A717" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B717" s="2" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A718" t="s">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75">
+      <c r="A718" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B718" s="2" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A719" t="s">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75">
+      <c r="A719" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="B719" t="s">
+      <c r="B719" s="2" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A720" t="s">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75">
+      <c r="A720" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B720" s="2" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A721" t="s">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75">
+      <c r="A721" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="B721" t="s">
+      <c r="B721" s="2" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A722" t="s">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75">
+      <c r="A722" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B722" s="2" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A723" t="s">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75">
+      <c r="A723" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B723" s="2" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A724" t="s">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75">
+      <c r="A724" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B724" s="2" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A725" t="s">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75">
+      <c r="A725" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B725" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A726" t="s">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75">
+      <c r="A726" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B726" s="2" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A727" t="s">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75">
+      <c r="A727" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B727" s="2" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A728" t="s">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75">
+      <c r="A728" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B728" s="2" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A729" t="s">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75">
+      <c r="A729" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="B729" t="s">
+      <c r="B729" s="2" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A730" t="s">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75">
+      <c r="A730" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B730" s="2" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A731" t="s">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75">
+      <c r="A731" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="B731" t="s">
+      <c r="B731" s="2" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A732" t="s">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75">
+      <c r="A732" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B732" s="2" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A733" t="s">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75">
+      <c r="A733" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="2" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A734" t="s">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75">
+      <c r="A734" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="2" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A735" t="s">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75">
+      <c r="A735" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B735" s="2" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A736" t="s">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75">
+      <c r="A736" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="2" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A737" t="s">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75">
+      <c r="A737" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="2" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A738" t="s">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75">
+      <c r="A738" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="2" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A739" t="s">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75">
+      <c r="A739" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B739" s="2" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A740" t="s">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75">
+      <c r="A740" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B740" s="2" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A741" t="s">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75">
+      <c r="A741" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="B741" t="s">
+      <c r="B741" s="2" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A742" t="s">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75">
+      <c r="A742" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B742" s="2" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A743" t="s">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75">
+      <c r="A743" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B743" s="2" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A744" t="s">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75">
+      <c r="A744" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="B744" t="s">
+      <c r="B744" s="2" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A745" t="s">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75">
+      <c r="A745" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B745" s="2" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A746" t="s">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75">
+      <c r="A746" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B746" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A747" t="s">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75">
+      <c r="A747" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="B747" t="s">
+      <c r="B747" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A748" t="s">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75">
+      <c r="A748" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="B748" t="s">
+      <c r="B748" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>